--- a/d1_unittest/data/cases.xlsx
+++ b/d1_unittest/data/cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\a\d1_unittest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C46147-6931-4667-B10F-F8DF9B529460}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB0B545-0DC7-4308-B175-2DAECF16D085}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>method</t>
   </si>
@@ -85,6 +85,17 @@
   </si>
   <si>
     <t>invalid_request</t>
+  </si>
+  <si>
+    <t>case_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name02</t>
   </si>
 </sst>
 </file>
@@ -433,77 +444,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="78.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
-    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
+    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -516,88 +537,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71E3646-77E0-4109-8849-5F76B200AE0C}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.25" customWidth="1"/>
-    <col min="3" max="3" width="7.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.25" customWidth="1"/>
+    <col min="4" max="4" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="125">
+    <row r="2" spans="1:7" ht="125">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="125">
+    <row r="3" spans="1:7" ht="125">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://sso-qa.gaiaworkforce.com/auth/realms/hronehrcore/protocol/openid-connect/token" xr:uid="{12CA3F1E-013F-437A-92EB-5B518F48F4BE}"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://sso-qa.gaiaworkforce.com/auth/realms/hronehrcore/protocol/openid-connect/token" xr:uid="{C59EA76B-5030-406C-B5B6-6A3B29775A71}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://sso-qa.gaiaworkforce.com/auth/realms/hronehrcore/protocol/openid-connect/token" xr:uid="{12CA3F1E-013F-437A-92EB-5B518F48F4BE}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://sso-qa.gaiaworkforce.com/auth/realms/hronehrcore/protocol/openid-connect/token" xr:uid="{C59EA76B-5030-406C-B5B6-6A3B29775A71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>